--- a/BOM/BOM.xlsx
+++ b/BOM/BOM.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Comment</t>
   </si>
@@ -88,258 +87,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Designator</t>
-  </si>
-  <si>
-    <t>PCB Footprint</t>
-  </si>
-  <si>
-    <t>4K7</t>
-  </si>
-  <si>
-    <t>R2</t>
+    <t>HDR4X1-2R54-TM-VM</t>
   </si>
   <si>
     <t>R0402</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t>C6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RC0402FR-074K7L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>C0402</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>220nF</t>
-  </si>
-  <si>
-    <t>C3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402MRX5R5BB106</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10uF(106) +-20% 6.3V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX5R7BB104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴片电容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS2MDLTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS2MDLTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGA-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLGA-10L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPS22HB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLGA-10L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LPS22HBTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>立创现货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSM6DSM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGA-14L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGA-14L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSM6DSMTR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220nF(224)+-10% 25V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC0402KRX5R8BB224</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0402</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接插件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HDR4X1</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>HDR4X1-2R54-TM-VM</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>LIS2MDL</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>LGA-12</t>
-  </si>
-  <si>
-    <t>LPS22HB</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>HLGA-10L</t>
-  </si>
-  <si>
-    <t>LSM6DSM</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>LGA-14L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4K7 +-1% </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RC0402FR-074K7L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402MRX5R5BB106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10uF(106) +-20% 6.3V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100F(104) +-10% 16V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402KRX5R7BB104</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6/100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴片电容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIS2MDLTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIS2MDLTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGA-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKMTW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C124378</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7K(4701) +-1% </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100nF(104) +-10% 16V</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAGEO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>立创代购</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLGA-10L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPS22HB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HLGA-10L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LPS22HBTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>立创现货</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSM6DSM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGA-14L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LGA-14L</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSM6DSMTR</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>220nF(224)+-10% 25V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC0402KRX5R8BB224</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YGAEO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接插件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDR4X1-2R54-TM-VM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDR4X1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CKMTW</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2/20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C124378</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,21 +286,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,18 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,23 +376,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,11 +688,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
@@ -845,7 +707,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="9.75">
+    <row r="1" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -877,244 +739,262 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="9.75">
+    <row r="2" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="9.75">
+    <row r="3" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2">
+        <v>0.8</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="9.75">
+    <row r="4" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="I4" s="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.7</v>
+      </c>
       <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="9.75">
+    <row r="5" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>0.3</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="9.75">
-      <c r="A6" s="15" t="s">
-        <v>85</v>
+    <row r="6" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H6" s="2">
         <v>0.15</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>3</v>
+      </c>
       <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="9.75">
+    <row r="7" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>9.9700000000000006</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2">
+        <v>29.91</v>
+      </c>
       <c r="J7" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="9.75">
+    <row r="8" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2">
-        <v>14.83</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="13" t="s">
-        <v>75</v>
+        <v>12.55</v>
+      </c>
+      <c r="I8" s="2">
+        <f>12.55*3</f>
+        <v>37.650000000000006</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="9.75">
+    <row r="9" spans="1:10" ht="9.75" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H9" s="2">
         <v>27.52</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="13" t="s">
-        <v>75</v>
+      <c r="I9" s="2">
+        <f>27.52*3</f>
+        <v>82.56</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1122,218 +1002,4 @@
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="28.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>